--- a/TSLA.xlsx
+++ b/TSLA.xlsx
@@ -10542,7 +10542,7 @@
         <v>45923</v>
       </c>
       <c r="B251" t="n">
-        <v>440.0150146484375</v>
+        <v>439.8800048828125</v>
       </c>
       <c r="C251" t="n">
         <v>440.9700012207031</v>
@@ -10554,7 +10554,7 @@
         <v>425.8500061035156</v>
       </c>
       <c r="F251" t="n">
-        <v>82571488</v>
+        <v>83211500</v>
       </c>
       <c r="G251" t="n">
         <v>0</v>
@@ -10569,7 +10569,7 @@
         <v>0.6747945056358284</v>
       </c>
       <c r="K251" t="n">
-        <v>90930634.40000001</v>
+        <v>90962635</v>
       </c>
       <c r="L251" t="n">
         <v>375.0175003051758</v>
@@ -10647,7 +10647,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>82571488</v>
+        <v>83211500</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>45923</v>
